--- a/work/suji.xlsx
+++ b/work/suji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salim\Desktop\Shamim\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563E87D0-B020-47DD-BBD1-1C85072C388C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45872EF8-85B5-46A7-9729-98D6B8FCC1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4290" yWindow="1470" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>18/06/22</t>
   </si>
@@ -65,13 +65,13 @@
     <t>-</t>
   </si>
   <si>
-    <t>36pes</t>
-  </si>
-  <si>
     <t>19/06/22</t>
   </si>
   <si>
-    <t>36 pes</t>
+    <t>20/06/22</t>
+  </si>
+  <si>
+    <t>21/06/22</t>
   </si>
 </sst>
 </file>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +401,7 @@
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -429,11 +429,8 @@
       <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -461,13 +458,10 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -493,8 +487,72 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44713</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44713</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <f>D2+D3+D4+D5</f>
+        <v>120</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/work/suji.xlsx
+++ b/work/suji.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salim\Desktop\Shamim\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45872EF8-85B5-46A7-9729-98D6B8FCC1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B049F6A-BCE2-43B9-A6B4-390395C34272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="1470" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>18/06/22</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>21/06/22</t>
+  </si>
+  <si>
+    <t>23/06/22</t>
+  </si>
+  <si>
+    <t>26/06/22</t>
+  </si>
+  <si>
+    <t>27/06/22</t>
+  </si>
+  <si>
+    <t>29/06/22</t>
   </si>
 </sst>
 </file>
@@ -390,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,16 +555,96 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44713</v>
+      </c>
+      <c r="D6">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44713</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44713</v>
+      </c>
+      <c r="D8">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44713</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="D10">
-        <f>D2+D3+D4+D5</f>
-        <v>120</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
+      <c r="D15">
+        <f>D2+D3+D4+D5+D6+D7+D8+D9</f>
+        <v>264</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/work/suji.xlsx
+++ b/work/suji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salim\Desktop\Shamim\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B049F6A-BCE2-43B9-A6B4-390395C34272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16671B0C-ABC8-4794-8783-1202223A3852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>18/06/22</t>
   </si>
@@ -119,9 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,7 +406,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +444,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -635,16 +636,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44713</v>
+      </c>
+      <c r="D10">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15">
-        <f>D2+D3+D4+D5+D6+D7+D8+D9</f>
-        <v>264</v>
+        <f>D2+D3+D4+D5+D6+D7+D8+D9+D10</f>
+        <v>300</v>
       </c>
       <c r="E15">
-        <v>19</v>
+        <f>E2+E3+E4+E5+E6+E7+E8+E9+E10</f>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
